--- a/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D626FB4B-799E-4E6A-A55C-24DA3DFF1B4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D8CF7-8275-42C8-A696-CE196F442FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>システム名</t>
   </si>
@@ -31,13 +31,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2017/8/22</t>
-  </si>
-  <si>
     <t>作成者</t>
-  </si>
-  <si>
-    <t>内海 智也</t>
   </si>
   <si>
     <t>カテゴリ</t>
@@ -221,17 +215,11 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>岩田侑大</t>
-    <rPh sb="0" eb="2">
-      <t>イワタ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ユウダイ</t>
-    </rPh>
+    <t>2019/11/07</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>2019/11/07</t>
+    <t>岩田侑大</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -624,32 +612,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,8 +648,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1529,7 +1517,7 @@
   <dimension ref="A1:BZ824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AV17" sqref="AV17"/>
+      <selection activeCell="BP1" sqref="BP1:BX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1539,14 +1527,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="50" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="29"/>
@@ -1591,33 +1579,33 @@
       <c r="AT1" s="29"/>
       <c r="AU1" s="29"/>
       <c r="AV1" s="30"/>
-      <c r="AW1" s="37" t="s">
+      <c r="AW1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="29"/>
       <c r="AY1" s="29"/>
       <c r="AZ1" s="29"/>
       <c r="BA1" s="30"/>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BH1" s="32"/>
+      <c r="BI1" s="32"/>
+      <c r="BJ1" s="33"/>
+      <c r="BK1" s="28" t="s">
         <v>3</v>
-      </c>
-      <c r="BC1" s="33"/>
-      <c r="BD1" s="33"/>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="33"/>
-      <c r="BG1" s="33"/>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="33"/>
-      <c r="BJ1" s="34"/>
-      <c r="BK1" s="37" t="s">
-        <v>4</v>
       </c>
       <c r="BL1" s="29"/>
       <c r="BM1" s="29"/>
       <c r="BN1" s="29"/>
       <c r="BO1" s="30"/>
-      <c r="BP1" s="49" t="s">
-        <v>5</v>
+      <c r="BP1" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="BQ1" s="29"/>
       <c r="BR1" s="29"/>
@@ -1626,93 +1614,89 @@
       <c r="BU1" s="29"/>
       <c r="BV1" s="29"/>
       <c r="BW1" s="29"/>
-      <c r="BX1" s="50"/>
+      <c r="BX1" s="46"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="36" t="s">
+      <c r="AX2" s="32"/>
+      <c r="AY2" s="32"/>
+      <c r="AZ2" s="32"/>
+      <c r="BA2" s="33"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="32"/>
+      <c r="BD2" s="32"/>
+      <c r="BE2" s="32"/>
+      <c r="BF2" s="32"/>
+      <c r="BG2" s="32"/>
+      <c r="BH2" s="32"/>
+      <c r="BI2" s="32"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="34"/>
-      <c r="BK2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="49" t="s">
-        <v>31</v>
-      </c>
+      <c r="BL2" s="32"/>
+      <c r="BM2" s="32"/>
+      <c r="BN2" s="32"/>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="45"/>
       <c r="BQ2" s="29"/>
       <c r="BR2" s="29"/>
       <c r="BS2" s="29"/>
@@ -1720,7 +1704,7 @@
       <c r="BU2" s="29"/>
       <c r="BV2" s="29"/>
       <c r="BW2" s="29"/>
-      <c r="BX2" s="50"/>
+      <c r="BX2" s="46"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -1807,10 +1791,10 @@
     <row r="4" spans="1:78" ht="14.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
-      <c r="C4" s="52" t="s">
-        <v>19</v>
+      <c r="C4" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1927,51 +1911,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="42" t="s">
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="44"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="40"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -2015,43 +1999,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="46"/>
-      <c r="BR6" s="46"/>
-      <c r="BS6" s="46"/>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="47"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="37"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="42"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="42"/>
+      <c r="BC6" s="42"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="42"/>
+      <c r="BF6" s="42"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="42"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="42"/>
+      <c r="BL6" s="42"/>
+      <c r="BM6" s="42"/>
+      <c r="BN6" s="42"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
+      <c r="BQ6" s="42"/>
+      <c r="BR6" s="42"/>
+      <c r="BS6" s="42"/>
+      <c r="BT6" s="42"/>
+      <c r="BU6" s="42"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="43"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -2095,12 +2079,12 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="26" t="s">
-        <v>15</v>
+      <c r="AM7" s="48" t="s">
+        <v>13</v>
       </c>
-      <c r="AN7" s="27"/>
+      <c r="AN7" s="49"/>
       <c r="AO7" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
@@ -2109,14 +2093,14 @@
       <c r="AT7" s="12"/>
       <c r="AU7" s="13"/>
       <c r="AV7" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB7" s="12"/>
       <c r="BC7" s="12"/>
@@ -2263,12 +2247,12 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="26" t="s">
-        <v>16</v>
+      <c r="AM9" s="48" t="s">
+        <v>14</v>
       </c>
-      <c r="AN9" s="27"/>
+      <c r="AN9" s="49"/>
       <c r="AO9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
@@ -2277,14 +2261,14 @@
       <c r="AT9" s="12"/>
       <c r="AU9" s="13"/>
       <c r="AV9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW9" s="12"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB9" s="12"/>
       <c r="BC9" s="12"/>
@@ -2431,12 +2415,12 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="26" t="s">
-        <v>17</v>
+      <c r="AM11" s="48" t="s">
+        <v>15</v>
       </c>
-      <c r="AN11" s="27"/>
+      <c r="AN11" s="49"/>
       <c r="AO11" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
@@ -2445,14 +2429,14 @@
       <c r="AT11" s="12"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW11" s="12"/>
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="13"/>
       <c r="BA11" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BB11" s="12"/>
       <c r="BC11" s="12"/>
@@ -2599,12 +2583,12 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="26" t="s">
-        <v>23</v>
+      <c r="AM13" s="48" t="s">
+        <v>21</v>
       </c>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="53" t="s">
-        <v>24</v>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
@@ -2613,14 +2597,14 @@
       <c r="AT13" s="12"/>
       <c r="AU13" s="13"/>
       <c r="AV13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="13"/>
       <c r="BA13" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB13" s="12"/>
       <c r="BC13" s="12"/>
@@ -2687,8 +2671,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="27"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="49"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -2847,8 +2831,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="27"/>
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="49"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -3167,8 +3151,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="27"/>
+      <c r="AM20" s="48"/>
+      <c r="AN20" s="49"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3407,8 +3391,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="27"/>
+      <c r="AM23" s="48"/>
+      <c r="AN23" s="49"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -3647,8 +3631,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="27"/>
+      <c r="AM26" s="48"/>
+      <c r="AN26" s="49"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -3887,8 +3871,8 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="26"/>
-      <c r="AN29" s="27"/>
+      <c r="AM29" s="48"/>
+      <c r="AN29" s="49"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -67530,19 +67514,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67558,6 +67529,19 @@
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AE2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299D8CF7-8275-42C8-A696-CE196F442FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC6D977-0AEA-470E-97AF-2C36D6F2EEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>システム名</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>更新者</t>
-  </si>
-  <si>
-    <t>■ログイン画面</t>
   </si>
   <si>
     <t>No.</t>
@@ -222,12 +219,120 @@
     <t>岩田侑大</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t xml:space="preserve">送信完了画面へ遷移 2019/11/08 JTM14 対応　岩田侑大 </t>
+    <rPh sb="0" eb="4">
+      <t>ソウシンカンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>送信完了画面</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>No.3送信ボタンを押下すると遷移されるページ</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>商品画面に戻るボタン</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>直近までいた商品詳細画面へ遷移する。</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/11/08 JTM14 対応　岩田侑大</t>
+    <rPh sb="17" eb="19">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2019/11/08</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>岩田侑大</t>
+    <rPh sb="0" eb="2">
+      <t>イワタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>■ログイン画面</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>■送信完了画面</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -274,6 +379,18 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
     </font>
@@ -575,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,6 +731,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1141,15 +1266,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>179978</xdr:colOff>
+      <xdr:colOff>189503</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57835</xdr:rowOff>
+      <xdr:rowOff>29260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1164,7 +1289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4486275" y="4572000"/>
+          <a:off x="4495800" y="4543425"/>
           <a:ext cx="294278" cy="172135"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -1204,6 +1329,196 @@
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
             <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7556CC-5173-48A9-A308-82DDFB545839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="5886449"/>
+          <a:ext cx="7000875" cy="3257551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84728</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172135</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED138F6-869C-4831-9D67-F707BE87709F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="6496050"/>
+          <a:ext cx="294278" cy="172135"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71638"/>
+            <a:gd name="adj2" fmla="val 9555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>５</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>151403</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114985</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Shape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D2E132-FAC7-476B-A6D7-2A9AE1CD3973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="6800850"/>
+          <a:ext cx="294278" cy="172135"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71638"/>
+            <a:gd name="adj2" fmla="val 9555"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="6AA84F"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="sm" len="sm"/>
+          <a:tailEnd type="none" w="sm" len="sm"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>６</a:t>
           </a:r>
           <a:endParaRPr sz="1200"/>
         </a:p>
@@ -1517,7 +1832,7 @@
   <dimension ref="A1:BZ824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP1" sqref="BP1:BX1"/>
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1527,184 +1842,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="50" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="28" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="44" t="s">
+      <c r="AX1" s="33"/>
+      <c r="AY1" s="33"/>
+      <c r="AZ1" s="33"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL1" s="33"/>
+      <c r="BM1" s="33"/>
+      <c r="BN1" s="33"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="33"/>
-      <c r="BK1" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="30"/>
-      <c r="BP1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="46"/>
+      <c r="BQ1" s="33"/>
+      <c r="BR1" s="33"/>
+      <c r="BS1" s="33"/>
+      <c r="BT1" s="33"/>
+      <c r="BU1" s="33"/>
+      <c r="BV1" s="33"/>
+      <c r="BW1" s="33"/>
+      <c r="BX1" s="50"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="53" t="s">
-        <v>16</v>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="57" t="s">
+        <v>15</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="31" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="31" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="32"/>
-      <c r="AY2" s="32"/>
-      <c r="AZ2" s="32"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="32"/>
-      <c r="BD2" s="32"/>
-      <c r="BE2" s="32"/>
-      <c r="BF2" s="32"/>
-      <c r="BG2" s="32"/>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="31" t="s">
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="32"/>
-      <c r="BM2" s="32"/>
-      <c r="BN2" s="32"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="45"/>
-      <c r="BQ2" s="29"/>
-      <c r="BR2" s="29"/>
-      <c r="BS2" s="29"/>
-      <c r="BT2" s="29"/>
-      <c r="BU2" s="29"/>
-      <c r="BV2" s="29"/>
-      <c r="BW2" s="29"/>
-      <c r="BX2" s="46"/>
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="BQ2" s="33"/>
+      <c r="BR2" s="33"/>
+      <c r="BS2" s="33"/>
+      <c r="BT2" s="33"/>
+      <c r="BU2" s="33"/>
+      <c r="BV2" s="33"/>
+      <c r="BW2" s="33"/>
+      <c r="BX2" s="50"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -1791,10 +2110,10 @@
     <row r="4" spans="1:78" ht="14.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1911,51 +2230,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="38" t="s">
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="38" t="s">
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-      <c r="BD5" s="39"/>
-      <c r="BE5" s="39"/>
-      <c r="BF5" s="39"/>
-      <c r="BG5" s="39"/>
-      <c r="BH5" s="39"/>
-      <c r="BI5" s="39"/>
-      <c r="BJ5" s="39"/>
-      <c r="BK5" s="39"/>
-      <c r="BL5" s="39"/>
-      <c r="BM5" s="39"/>
-      <c r="BN5" s="39"/>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="39"/>
-      <c r="BQ5" s="39"/>
-      <c r="BR5" s="39"/>
-      <c r="BS5" s="39"/>
-      <c r="BT5" s="39"/>
-      <c r="BU5" s="39"/>
-      <c r="BV5" s="39"/>
-      <c r="BW5" s="40"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="43"/>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="44"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -1999,43 +2318,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="42"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="42"/>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="42"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="42"/>
-      <c r="BC6" s="42"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="42"/>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="42"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="42"/>
-      <c r="BL6" s="42"/>
-      <c r="BM6" s="42"/>
-      <c r="BN6" s="42"/>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="42"/>
-      <c r="BQ6" s="42"/>
-      <c r="BR6" s="42"/>
-      <c r="BS6" s="42"/>
-      <c r="BT6" s="42"/>
-      <c r="BU6" s="42"/>
-      <c r="BV6" s="42"/>
-      <c r="BW6" s="43"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="46"/>
+      <c r="BT6" s="46"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="47"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -2079,12 +2398,12 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="48" t="s">
-        <v>13</v>
+      <c r="AM7" s="52" t="s">
+        <v>12</v>
       </c>
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="53"/>
       <c r="AO7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP7" s="12"/>
       <c r="AQ7" s="12"/>
@@ -2093,14 +2412,14 @@
       <c r="AT7" s="12"/>
       <c r="AU7" s="13"/>
       <c r="AV7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW7" s="12"/>
       <c r="AX7" s="12"/>
       <c r="AY7" s="12"/>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB7" s="12"/>
       <c r="BC7" s="12"/>
@@ -2247,12 +2566,12 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="48" t="s">
-        <v>14</v>
+      <c r="AM9" s="52" t="s">
+        <v>13</v>
       </c>
-      <c r="AN9" s="49"/>
+      <c r="AN9" s="53"/>
       <c r="AO9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
@@ -2261,14 +2580,14 @@
       <c r="AT9" s="12"/>
       <c r="AU9" s="13"/>
       <c r="AV9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW9" s="12"/>
       <c r="AX9" s="12"/>
       <c r="AY9" s="12"/>
       <c r="AZ9" s="13"/>
       <c r="BA9" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB9" s="12"/>
       <c r="BC9" s="12"/>
@@ -2415,12 +2734,12 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="48" t="s">
-        <v>15</v>
+      <c r="AM11" s="52" t="s">
+        <v>14</v>
       </c>
-      <c r="AN11" s="49"/>
+      <c r="AN11" s="53"/>
       <c r="AO11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" s="12"/>
       <c r="AQ11" s="12"/>
@@ -2429,14 +2748,14 @@
       <c r="AT11" s="12"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW11" s="12"/>
       <c r="AX11" s="12"/>
       <c r="AY11" s="12"/>
       <c r="AZ11" s="13"/>
       <c r="BA11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB11" s="12"/>
       <c r="BC11" s="12"/>
@@ -2517,7 +2836,9 @@
       <c r="AX12" s="12"/>
       <c r="AY12" s="12"/>
       <c r="AZ12" s="13"/>
-      <c r="BA12" s="12"/>
+      <c r="BA12" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="BB12" s="4"/>
       <c r="BC12" s="12"/>
       <c r="BD12" s="12"/>
@@ -2583,12 +2904,12 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="48" t="s">
+      <c r="AM13" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="AN13" s="49"/>
-      <c r="AO13" s="27" t="s">
-        <v>22</v>
       </c>
       <c r="AP13" s="12"/>
       <c r="AQ13" s="12"/>
@@ -2597,14 +2918,14 @@
       <c r="AT13" s="12"/>
       <c r="AU13" s="13"/>
       <c r="AV13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW13" s="12"/>
       <c r="AX13" s="12"/>
       <c r="AY13" s="12"/>
       <c r="AZ13" s="13"/>
       <c r="BA13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB13" s="12"/>
       <c r="BC13" s="12"/>
@@ -2671,8 +2992,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="48"/>
-      <c r="AN14" s="49"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="53"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -2751,9 +3072,13 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="12"/>
+      <c r="AM15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN15" s="31"/>
+      <c r="AO15" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="AP15" s="12"/>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
@@ -2765,7 +3090,9 @@
       <c r="AX15" s="12"/>
       <c r="AY15" s="12"/>
       <c r="AZ15" s="13"/>
-      <c r="BA15" s="12"/>
+      <c r="BA15" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="BB15" s="12"/>
       <c r="BC15" s="12"/>
       <c r="BD15" s="12"/>
@@ -2831,8 +3158,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="49"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="53"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -2852,7 +3179,9 @@
       <c r="BE16" s="12"/>
       <c r="BF16" s="12"/>
       <c r="BG16" s="12"/>
-      <c r="BH16" s="12"/>
+      <c r="BH16" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="BI16" s="12"/>
       <c r="BJ16" s="12"/>
       <c r="BK16" s="12"/>
@@ -2911,9 +3240,13 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="12"/>
+      <c r="AM17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN17" s="31"/>
+      <c r="AO17" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="AP17" s="12"/>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
@@ -2925,7 +3258,9 @@
       <c r="AX17" s="12"/>
       <c r="AY17" s="12"/>
       <c r="AZ17" s="13"/>
-      <c r="BA17" s="12"/>
+      <c r="BA17" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="BB17" s="4"/>
       <c r="BC17" s="12"/>
       <c r="BD17" s="12"/>
@@ -3012,7 +3347,9 @@
       <c r="BE18" s="12"/>
       <c r="BF18" s="12"/>
       <c r="BG18" s="12"/>
-      <c r="BH18" s="12"/>
+      <c r="BH18" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
@@ -3151,8 +3488,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="49"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="53"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3391,8 +3728,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="48"/>
-      <c r="AN23" s="49"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="53"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -3631,8 +3968,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="48"/>
-      <c r="AN26" s="49"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="53"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -3871,8 +4208,8 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="48"/>
-      <c r="AN29" s="49"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="53"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -3914,7 +4251,9 @@
     </row>
     <row r="30" spans="1:78" ht="14.25" customHeight="1">
       <c r="A30" s="6"/>
-      <c r="B30" s="4"/>
+      <c r="B30" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -67513,7 +67852,7 @@
       <c r="BZ824" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67529,6 +67868,8 @@
     <mergeCell ref="AM26:AN26"/>
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM17:AN17"/>
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="BK1:BO1"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/DesignDocs/設計書/01.基本設計/02.画面設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC6D977-0AEA-470E-97AF-2C36D6F2EEB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62FF7BD-AAE3-544E-9092-8AE53789730C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="3160" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={DBFBC3A1-E263-C44A-B394-675CDE2AC005}</author>
+  </authors>
+  <commentList>
+    <comment ref="BV7" authorId="0" shapeId="0" xr:uid="{DBFBC3A1-E263-C44A-B394-675CDE2AC005}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    新規で作成したページは全部赤字か黒字かどちらかで統一されるとよいですね。</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -342,27 +360,33 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -393,6 +417,11 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="2">
@@ -733,6 +762,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,13 +794,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,22 +817,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,7 +979,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4181476" y="1724024"/>
+          <a:off x="4244976" y="1714499"/>
           <a:ext cx="5538672" cy="5534009"/>
           <a:chOff x="2286311" y="-2206729"/>
           <a:chExt cx="6634489" cy="7040679"/>
@@ -1529,6 +1558,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="seiya" id="{57C17F6C-96D4-AF44-BC74-F63D8E865BBA}" userId="seiya" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1824,32 +1859,40 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="BV7" dT="2019-11-08T08:14:02.43" personId="{57C17F6C-96D4-AF44-BC74-F63D8E865BBA}" id="{DBFBC3A1-E263-C44A-B394-675CDE2AC005}">
+    <text>新規で作成したページは全部赤字か黒字かどちらかで統一されるとよいですね。</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BZ824"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+      <selection activeCell="BV7" sqref="BV7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="76" width="2.625" customWidth="1"/>
+    <col min="1" max="76" width="2.6640625" customWidth="1"/>
     <col min="77" max="78" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="33"/>
@@ -1894,32 +1937,32 @@
       <c r="AT1" s="33"/>
       <c r="AU1" s="33"/>
       <c r="AV1" s="34"/>
-      <c r="AW1" s="32" t="s">
+      <c r="AW1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="33"/>
       <c r="AY1" s="33"/>
       <c r="AZ1" s="33"/>
       <c r="BA1" s="34"/>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="32" t="s">
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="BL1" s="33"/>
       <c r="BM1" s="33"/>
       <c r="BN1" s="33"/>
       <c r="BO1" s="34"/>
-      <c r="BP1" s="49" t="s">
+      <c r="BP1" s="55" t="s">
         <v>29</v>
       </c>
       <c r="BQ1" s="33"/>
@@ -1929,91 +1972,91 @@
       <c r="BU1" s="33"/>
       <c r="BV1" s="33"/>
       <c r="BW1" s="33"/>
-      <c r="BX1" s="50"/>
+      <c r="BX1" s="56"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="35" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="35" t="s">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="48" t="s">
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="35" t="s">
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="49" t="s">
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="55" t="s">
         <v>39</v>
       </c>
       <c r="BQ2" s="33"/>
@@ -2023,7 +2066,7 @@
       <c r="BU2" s="33"/>
       <c r="BV2" s="33"/>
       <c r="BW2" s="33"/>
-      <c r="BX2" s="50"/>
+      <c r="BX2" s="56"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -2107,7 +2150,7 @@
       <c r="BY3" s="4"/>
       <c r="BZ3" s="4"/>
     </row>
-    <row r="4" spans="1:78" ht="14.25">
+    <row r="4" spans="1:78">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>40</v>
@@ -2230,56 +2273,56 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="42" t="s">
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="42" t="s">
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="42" t="s">
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="44"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="49"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="50"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="1:78" ht="14.25">
+    <row r="6" spans="1:78">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2318,43 +2361,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="46"/>
-      <c r="BR6" s="46"/>
-      <c r="BS6" s="46"/>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="47"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="52"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="52"/>
+      <c r="BM6" s="52"/>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="52"/>
+      <c r="BP6" s="52"/>
+      <c r="BQ6" s="52"/>
+      <c r="BR6" s="52"/>
+      <c r="BS6" s="52"/>
+      <c r="BT6" s="52"/>
+      <c r="BU6" s="52"/>
+      <c r="BV6" s="52"/>
+      <c r="BW6" s="53"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -2398,10 +2441,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="52" t="s">
+      <c r="AM7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AN7" s="53"/>
+      <c r="AN7" s="31"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2566,10 +2609,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="52" t="s">
+      <c r="AM9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="53"/>
+      <c r="AN9" s="31"/>
       <c r="AO9" s="11" t="s">
         <v>18</v>
       </c>
@@ -2734,10 +2777,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="52" t="s">
+      <c r="AM11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AN11" s="53"/>
+      <c r="AN11" s="31"/>
       <c r="AO11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2904,10 +2947,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="52" t="s">
+      <c r="AM13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AN13" s="53"/>
+      <c r="AN13" s="31"/>
       <c r="AO13" s="27" t="s">
         <v>21</v>
       </c>
@@ -2992,8 +3035,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="53"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="31"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -3072,10 +3115,10 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="30" t="s">
+      <c r="AM15" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AN15" s="31"/>
+      <c r="AN15" s="42"/>
       <c r="AO15" s="28" t="s">
         <v>32</v>
       </c>
@@ -3158,8 +3201,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="53"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="31"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -3240,10 +3283,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="30" t="s">
+      <c r="AM17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AN17" s="31"/>
+      <c r="AN17" s="42"/>
       <c r="AO17" s="29" t="s">
         <v>35</v>
       </c>
@@ -3488,8 +3531,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="53"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="31"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3728,8 +3771,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="53"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="31"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -3968,8 +4011,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="53"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="31"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -4208,8 +4251,8 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="53"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="31"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -5851,7 +5894,7 @@
       <c r="BY49" s="4"/>
       <c r="BZ49" s="4"/>
     </row>
-    <row r="50" spans="1:78" ht="14.25">
+    <row r="50" spans="1:78">
       <c r="A50" s="6"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -5931,7 +5974,7 @@
       <c r="BY50" s="4"/>
       <c r="BZ50" s="4"/>
     </row>
-    <row r="51" spans="1:78" ht="14.25">
+    <row r="51" spans="1:78">
       <c r="A51" s="25"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -67853,6 +67896,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67869,23 +67926,10 @@
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AE2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seiya/DesignDocs/設計書/01.基本設計/02.画面設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62FF7BD-AAE3-544E-9092-8AE53789730C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B032C0E-084F-459C-9A67-A004B37E5A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="3160" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -350,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -360,33 +360,33 @@
       <b/>
       <sz val="14"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="MS PGothic"/>
-      <charset val="128"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="6"/>
@@ -417,11 +417,6 @@
       <color rgb="FFFF0000"/>
       <name val="MS PGothic"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic UI"/>
     </font>
   </fonts>
   <fills count="2">
@@ -762,29 +757,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,6 +766,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,6 +796,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +974,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4244976" y="1714499"/>
+          <a:off x="4181476" y="1724024"/>
           <a:ext cx="5538672" cy="5534009"/>
           <a:chOff x="2286311" y="-2206729"/>
           <a:chExt cx="6634489" cy="7040679"/>
@@ -1874,25 +1869,25 @@
   </sheetPr>
   <dimension ref="A1:BZ824"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV7" sqref="BV7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="76" width="2.6640625" customWidth="1"/>
+    <col min="1" max="76" width="2.625" customWidth="1"/>
     <col min="77" max="78" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="33"/>
@@ -1937,32 +1932,32 @@
       <c r="AT1" s="33"/>
       <c r="AU1" s="33"/>
       <c r="AV1" s="34"/>
-      <c r="AW1" s="43" t="s">
+      <c r="AW1" s="32" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="33"/>
       <c r="AY1" s="33"/>
       <c r="AZ1" s="33"/>
       <c r="BA1" s="34"/>
-      <c r="BB1" s="54" t="s">
+      <c r="BB1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="43" t="s">
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="BL1" s="33"/>
       <c r="BM1" s="33"/>
       <c r="BN1" s="33"/>
       <c r="BO1" s="34"/>
-      <c r="BP1" s="55" t="s">
+      <c r="BP1" s="49" t="s">
         <v>29</v>
       </c>
       <c r="BQ1" s="33"/>
@@ -1972,91 +1967,91 @@
       <c r="BU1" s="33"/>
       <c r="BV1" s="33"/>
       <c r="BW1" s="33"/>
-      <c r="BX1" s="56"/>
+      <c r="BX1" s="50"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="39" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="40" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-      <c r="AR2" s="37"/>
-      <c r="AS2" s="37"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="40" t="s">
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
+      <c r="AP2" s="36"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="36"/>
+      <c r="AS2" s="36"/>
+      <c r="AT2" s="36"/>
+      <c r="AU2" s="36"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="54" t="s">
+      <c r="AX2" s="36"/>
+      <c r="AY2" s="36"/>
+      <c r="AZ2" s="36"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="40" t="s">
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="36"/>
+      <c r="BG2" s="36"/>
+      <c r="BH2" s="36"/>
+      <c r="BI2" s="36"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="38"/>
-      <c r="BP2" s="55" t="s">
+      <c r="BL2" s="36"/>
+      <c r="BM2" s="36"/>
+      <c r="BN2" s="36"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="49" t="s">
         <v>39</v>
       </c>
       <c r="BQ2" s="33"/>
@@ -2066,7 +2061,7 @@
       <c r="BU2" s="33"/>
       <c r="BV2" s="33"/>
       <c r="BW2" s="33"/>
-      <c r="BX2" s="56"/>
+      <c r="BX2" s="50"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -2150,7 +2145,7 @@
       <c r="BY3" s="4"/>
       <c r="BZ3" s="4"/>
     </row>
-    <row r="4" spans="1:78">
+    <row r="4" spans="1:78" ht="14.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>40</v>
@@ -2273,56 +2268,56 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="44" t="s">
+      <c r="AM5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="45"/>
-      <c r="AO5" s="48" t="s">
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="45"/>
-      <c r="AV5" s="48" t="s">
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="48" t="s">
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="49"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="49"/>
-      <c r="BP5" s="49"/>
-      <c r="BQ5" s="49"/>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49"/>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="49"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="50"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+      <c r="BI5" s="43"/>
+      <c r="BJ5" s="43"/>
+      <c r="BK5" s="43"/>
+      <c r="BL5" s="43"/>
+      <c r="BM5" s="43"/>
+      <c r="BN5" s="43"/>
+      <c r="BO5" s="43"/>
+      <c r="BP5" s="43"/>
+      <c r="BQ5" s="43"/>
+      <c r="BR5" s="43"/>
+      <c r="BS5" s="43"/>
+      <c r="BT5" s="43"/>
+      <c r="BU5" s="43"/>
+      <c r="BV5" s="43"/>
+      <c r="BW5" s="44"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="1:78">
+    <row r="6" spans="1:78" ht="14.25">
       <c r="A6" s="6"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2361,43 +2356,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="51"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="47"/>
-      <c r="AV6" s="51"/>
-      <c r="AW6" s="52"/>
-      <c r="AX6" s="52"/>
-      <c r="AY6" s="52"/>
-      <c r="AZ6" s="47"/>
-      <c r="BA6" s="51"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="52"/>
-      <c r="BD6" s="52"/>
-      <c r="BE6" s="52"/>
-      <c r="BF6" s="52"/>
-      <c r="BG6" s="52"/>
-      <c r="BH6" s="52"/>
-      <c r="BI6" s="52"/>
-      <c r="BJ6" s="52"/>
-      <c r="BK6" s="52"/>
-      <c r="BL6" s="52"/>
-      <c r="BM6" s="52"/>
-      <c r="BN6" s="52"/>
-      <c r="BO6" s="52"/>
-      <c r="BP6" s="52"/>
-      <c r="BQ6" s="52"/>
-      <c r="BR6" s="52"/>
-      <c r="BS6" s="52"/>
-      <c r="BT6" s="52"/>
-      <c r="BU6" s="52"/>
-      <c r="BV6" s="52"/>
-      <c r="BW6" s="53"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="45"/>
+      <c r="AP6" s="46"/>
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="46"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="45"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="46"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="45"/>
+      <c r="BB6" s="46"/>
+      <c r="BC6" s="46"/>
+      <c r="BD6" s="46"/>
+      <c r="BE6" s="46"/>
+      <c r="BF6" s="46"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
+      <c r="BI6" s="46"/>
+      <c r="BJ6" s="46"/>
+      <c r="BK6" s="46"/>
+      <c r="BL6" s="46"/>
+      <c r="BM6" s="46"/>
+      <c r="BN6" s="46"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
+      <c r="BQ6" s="46"/>
+      <c r="BR6" s="46"/>
+      <c r="BS6" s="46"/>
+      <c r="BT6" s="46"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="47"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -2441,10 +2436,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="30" t="s">
+      <c r="AM7" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AN7" s="31"/>
+      <c r="AN7" s="53"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2609,10 +2604,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AM9" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="31"/>
+      <c r="AN9" s="53"/>
       <c r="AO9" s="11" t="s">
         <v>18</v>
       </c>
@@ -2777,10 +2772,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="30" t="s">
+      <c r="AM11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AN11" s="31"/>
+      <c r="AN11" s="53"/>
       <c r="AO11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2947,10 +2942,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="30" t="s">
+      <c r="AM13" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="AN13" s="31"/>
+      <c r="AN13" s="53"/>
       <c r="AO13" s="27" t="s">
         <v>21</v>
       </c>
@@ -3035,8 +3030,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="31"/>
+      <c r="AM14" s="52"/>
+      <c r="AN14" s="53"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -3115,10 +3110,10 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="41" t="s">
+      <c r="AM15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AN15" s="42"/>
+      <c r="AN15" s="31"/>
       <c r="AO15" s="28" t="s">
         <v>32</v>
       </c>
@@ -3201,8 +3196,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="31"/>
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="53"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -3283,10 +3278,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="41" t="s">
+      <c r="AM17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AN17" s="42"/>
+      <c r="AN17" s="31"/>
       <c r="AO17" s="29" t="s">
         <v>35</v>
       </c>
@@ -3531,8 +3526,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="31"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="53"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3771,8 +3766,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="31"/>
+      <c r="AM23" s="52"/>
+      <c r="AN23" s="53"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -4011,8 +4006,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="31"/>
+      <c r="AM26" s="52"/>
+      <c r="AN26" s="53"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -4251,8 +4246,8 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="31"/>
+      <c r="AM29" s="52"/>
+      <c r="AN29" s="53"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -5894,7 +5889,7 @@
       <c r="BY49" s="4"/>
       <c r="BZ49" s="4"/>
     </row>
-    <row r="50" spans="1:78">
+    <row r="50" spans="1:78" ht="14.25">
       <c r="A50" s="6"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -5974,7 +5969,7 @@
       <c r="BY50" s="4"/>
       <c r="BZ50" s="4"/>
     </row>
-    <row r="51" spans="1:78">
+    <row r="51" spans="1:78" ht="14.25">
       <c r="A51" s="25"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
@@ -67896,20 +67891,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67926,6 +67907,20 @@
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AE2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
+++ b/設計書/01.基本設計/02.画面設計/画面設計書(問い合わせフォーム).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\DesignDocs\設計書\01.基本設計\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B032C0E-084F-459C-9A67-A004B37E5A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8D3E7-DE3C-46F3-9AD8-78254D28EB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="27420" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -757,6 +757,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,13 +789,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,22 +812,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:BZ824"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+      <selection activeCell="BT14" sqref="BT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1880,14 +1880,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="34"/>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="33"/>
@@ -1932,32 +1932,32 @@
       <c r="AT1" s="33"/>
       <c r="AU1" s="33"/>
       <c r="AV1" s="34"/>
-      <c r="AW1" s="32" t="s">
+      <c r="AW1" s="43" t="s">
         <v>2</v>
       </c>
       <c r="AX1" s="33"/>
       <c r="AY1" s="33"/>
       <c r="AZ1" s="33"/>
       <c r="BA1" s="34"/>
-      <c r="BB1" s="48" t="s">
+      <c r="BB1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="32" t="s">
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="43" t="s">
         <v>3</v>
       </c>
       <c r="BL1" s="33"/>
       <c r="BM1" s="33"/>
       <c r="BN1" s="33"/>
       <c r="BO1" s="34"/>
-      <c r="BP1" s="49" t="s">
+      <c r="BP1" s="55" t="s">
         <v>29</v>
       </c>
       <c r="BQ1" s="33"/>
@@ -1967,91 +1967,91 @@
       <c r="BU1" s="33"/>
       <c r="BV1" s="33"/>
       <c r="BW1" s="33"/>
-      <c r="BX1" s="50"/>
+      <c r="BX1" s="56"/>
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
     <row r="2" spans="1:78" ht="27.75" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="35" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
-      <c r="AP2" s="36"/>
-      <c r="AQ2" s="36"/>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="36"/>
-      <c r="AU2" s="36"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="35" t="s">
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AX2" s="36"/>
-      <c r="AY2" s="36"/>
-      <c r="AZ2" s="36"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="48" t="s">
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="36"/>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="35" t="s">
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="49" t="s">
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="38"/>
+      <c r="BP2" s="55" t="s">
         <v>39</v>
       </c>
       <c r="BQ2" s="33"/>
@@ -2061,7 +2061,7 @@
       <c r="BU2" s="33"/>
       <c r="BV2" s="33"/>
       <c r="BW2" s="33"/>
-      <c r="BX2" s="50"/>
+      <c r="BX2" s="56"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
@@ -2268,51 +2268,51 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
-      <c r="AM5" s="38" t="s">
+      <c r="AM5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="42" t="s">
+      <c r="AN5" s="45"/>
+      <c r="AO5" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="42" t="s">
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="45"/>
+      <c r="AV5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="42" t="s">
+      <c r="AW5" s="49"/>
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49"/>
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="43"/>
-      <c r="BL5" s="43"/>
-      <c r="BM5" s="43"/>
-      <c r="BN5" s="43"/>
-      <c r="BO5" s="43"/>
-      <c r="BP5" s="43"/>
-      <c r="BQ5" s="43"/>
-      <c r="BR5" s="43"/>
-      <c r="BS5" s="43"/>
-      <c r="BT5" s="43"/>
-      <c r="BU5" s="43"/>
-      <c r="BV5" s="43"/>
-      <c r="BW5" s="44"/>
+      <c r="BB5" s="49"/>
+      <c r="BC5" s="49"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="49"/>
+      <c r="BK5" s="49"/>
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49"/>
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="49"/>
+      <c r="BP5" s="49"/>
+      <c r="BQ5" s="49"/>
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49"/>
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="49"/>
+      <c r="BV5" s="49"/>
+      <c r="BW5" s="50"/>
       <c r="BX5" s="8"/>
       <c r="BY5" s="4"/>
       <c r="BZ5" s="4"/>
@@ -2356,43 +2356,43 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="45"/>
-      <c r="AP6" s="46"/>
-      <c r="AQ6" s="46"/>
-      <c r="AR6" s="46"/>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="46"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="45"/>
-      <c r="AW6" s="46"/>
-      <c r="AX6" s="46"/>
-      <c r="AY6" s="46"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="45"/>
-      <c r="BB6" s="46"/>
-      <c r="BC6" s="46"/>
-      <c r="BD6" s="46"/>
-      <c r="BE6" s="46"/>
-      <c r="BF6" s="46"/>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
-      <c r="BI6" s="46"/>
-      <c r="BJ6" s="46"/>
-      <c r="BK6" s="46"/>
-      <c r="BL6" s="46"/>
-      <c r="BM6" s="46"/>
-      <c r="BN6" s="46"/>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
-      <c r="BQ6" s="46"/>
-      <c r="BR6" s="46"/>
-      <c r="BS6" s="46"/>
-      <c r="BT6" s="46"/>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="47"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="47"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="52"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="52"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="52"/>
+      <c r="BG6" s="52"/>
+      <c r="BH6" s="52"/>
+      <c r="BI6" s="52"/>
+      <c r="BJ6" s="52"/>
+      <c r="BK6" s="52"/>
+      <c r="BL6" s="52"/>
+      <c r="BM6" s="52"/>
+      <c r="BN6" s="52"/>
+      <c r="BO6" s="52"/>
+      <c r="BP6" s="52"/>
+      <c r="BQ6" s="52"/>
+      <c r="BR6" s="52"/>
+      <c r="BS6" s="52"/>
+      <c r="BT6" s="52"/>
+      <c r="BU6" s="52"/>
+      <c r="BV6" s="52"/>
+      <c r="BW6" s="53"/>
       <c r="BX6" s="8"/>
       <c r="BY6" s="4"/>
       <c r="BZ6" s="4"/>
@@ -2436,10 +2436,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-      <c r="AM7" s="52" t="s">
+      <c r="AM7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="AN7" s="53"/>
+      <c r="AN7" s="31"/>
       <c r="AO7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2604,10 +2604,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="4"/>
-      <c r="AM9" s="52" t="s">
+      <c r="AM9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="53"/>
+      <c r="AN9" s="31"/>
       <c r="AO9" s="11" t="s">
         <v>18</v>
       </c>
@@ -2772,10 +2772,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-      <c r="AM11" s="52" t="s">
+      <c r="AM11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AN11" s="53"/>
+      <c r="AN11" s="31"/>
       <c r="AO11" s="11" t="s">
         <v>19</v>
       </c>
@@ -2942,10 +2942,10 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
-      <c r="AM13" s="52" t="s">
+      <c r="AM13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AN13" s="53"/>
+      <c r="AN13" s="31"/>
       <c r="AO13" s="27" t="s">
         <v>21</v>
       </c>
@@ -3030,8 +3030,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
-      <c r="AM14" s="52"/>
-      <c r="AN14" s="53"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="31"/>
       <c r="AO14" s="11"/>
       <c r="AP14" s="12"/>
       <c r="AQ14" s="12"/>
@@ -3110,10 +3110,10 @@
       <c r="AJ15" s="17"/>
       <c r="AK15" s="4"/>
       <c r="AL15" s="4"/>
-      <c r="AM15" s="30" t="s">
+      <c r="AM15" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AN15" s="31"/>
+      <c r="AN15" s="42"/>
       <c r="AO15" s="28" t="s">
         <v>32</v>
       </c>
@@ -3196,8 +3196,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
-      <c r="AM16" s="52"/>
-      <c r="AN16" s="53"/>
+      <c r="AM16" s="30"/>
+      <c r="AN16" s="31"/>
       <c r="AO16" s="11"/>
       <c r="AP16" s="12"/>
       <c r="AQ16" s="12"/>
@@ -3278,10 +3278,10 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
-      <c r="AM17" s="30" t="s">
+      <c r="AM17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="AN17" s="31"/>
+      <c r="AN17" s="42"/>
       <c r="AO17" s="29" t="s">
         <v>35</v>
       </c>
@@ -3526,8 +3526,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
-      <c r="AM20" s="52"/>
-      <c r="AN20" s="53"/>
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="31"/>
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
       <c r="AQ20" s="12"/>
@@ -3766,8 +3766,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
-      <c r="AM23" s="52"/>
-      <c r="AN23" s="53"/>
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="31"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
       <c r="AQ23" s="12"/>
@@ -4006,8 +4006,8 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="52"/>
-      <c r="AN26" s="53"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="31"/>
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
       <c r="AQ26" s="12"/>
@@ -4246,8 +4246,8 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
-      <c r="AM29" s="52"/>
-      <c r="AN29" s="53"/>
+      <c r="AM29" s="30"/>
+      <c r="AN29" s="31"/>
       <c r="AO29" s="12"/>
       <c r="AP29" s="12"/>
       <c r="AQ29" s="12"/>
@@ -67891,6 +67891,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BK1:BO1"/>
+    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="AM5:AN6"/>
+    <mergeCell ref="BA5:BW6"/>
+    <mergeCell ref="BB1:BJ1"/>
+    <mergeCell ref="BP1:BX1"/>
+    <mergeCell ref="BP2:BX2"/>
+    <mergeCell ref="AO5:AU6"/>
+    <mergeCell ref="AV5:AZ6"/>
+    <mergeCell ref="BB2:BJ2"/>
+    <mergeCell ref="AE2:AV2"/>
     <mergeCell ref="AM29:AN29"/>
     <mergeCell ref="F1:AV1"/>
     <mergeCell ref="A1:E1"/>
@@ -67907,20 +67921,6 @@
     <mergeCell ref="AM14:AN14"/>
     <mergeCell ref="AM16:AN16"/>
     <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BK1:BO1"/>
-    <mergeCell ref="BK2:BO2"/>
-    <mergeCell ref="AM5:AN6"/>
-    <mergeCell ref="BA5:BW6"/>
-    <mergeCell ref="BB1:BJ1"/>
-    <mergeCell ref="BP1:BX1"/>
-    <mergeCell ref="BP2:BX2"/>
-    <mergeCell ref="AO5:AU6"/>
-    <mergeCell ref="AV5:AZ6"/>
-    <mergeCell ref="BB2:BJ2"/>
-    <mergeCell ref="AE2:AV2"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
